--- a/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Forests_dashboard.xlsx
+++ b/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Forests_dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F89EC8-A98F-D345-9A31-4C6CBFAC71E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC6D70-C1D9-E549-80A2-B79B63C27B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="5" xr2:uid="{28B50FF7-7FFB-EC4C-AF6B-62C757F142BB}"/>
   </bookViews>
@@ -2391,9 +2391,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2407,6 +2404,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -48401,127 +48401,127 @@
         <f>Dashboard!$C$7</f>
         <v>Puerto Rico</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <f>INDEX(DATA!E:E,$B3)</f>
         <v>36.113866967305526</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f>INDEX(DATA!F:F,$B3)</f>
         <v>37.340698985343856</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f>INDEX(DATA!G:G,$B3)</f>
         <v>38.567531003382186</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <f>INDEX(DATA!H:H,$B3)</f>
         <v>39.794363021420523</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <f>INDEX(DATA!I:I,$B3)</f>
         <v>41.021195039458846</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <f>INDEX(DATA!J:J,$B3)</f>
         <v>42.248027057497183</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <f>INDEX(DATA!K:K,$B3)</f>
         <v>43.474859075535512</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="17">
         <f>INDEX(DATA!L:L,$B3)</f>
         <v>44.701691093573842</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <f>INDEX(DATA!M:M,$B3)</f>
         <v>45.928523111612179</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <f>INDEX(DATA!N:N,$B3)</f>
         <v>47.155355129650509</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="17">
         <f>INDEX(DATA!O:O,$B3)</f>
         <v>48.382187147688839</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="17">
         <f>INDEX(DATA!P:P,$B3)</f>
         <v>49.084554678692221</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="17">
         <f>INDEX(DATA!Q:Q,$B3)</f>
         <v>49.786922209695604</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="17">
         <f>INDEX(DATA!R:R,$B3)</f>
         <v>50.489289740698986</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="17">
         <f>INDEX(DATA!S:S,$B3)</f>
         <v>51.191657271702361</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="17">
         <f>INDEX(DATA!T:T,$B3)</f>
         <v>51.894024802705751</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="17">
         <f>INDEX(DATA!U:U,$B3)</f>
         <v>52.596392333709133</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="17">
         <f>INDEX(DATA!V:V,$B3)</f>
         <v>53.298759864712522</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="17">
         <f>INDEX(DATA!W:W,$B3)</f>
         <v>54.001127395715898</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="17">
         <f>INDEX(DATA!X:X,$B3)</f>
         <v>54.703494926719273</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="17">
         <f>INDEX(DATA!Y:Y,$B3)</f>
         <v>55.405862457722662</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="17">
         <f>INDEX(DATA!Z:Z,$B3)</f>
         <v>55.460653889515221</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="17">
         <f>INDEX(DATA!AA:AA,$B3)</f>
         <v>55.51544532130778</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="17">
         <f>INDEX(DATA!AB:AB,$B3)</f>
         <v>55.570236753100332</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="17">
         <f>INDEX(DATA!AC:AC,$B3)</f>
         <v>55.625028184892891</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="17">
         <f>INDEX(DATA!AD:AD,$B3)</f>
         <v>55.679819616685457</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="17">
         <f>INDEX(DATA!AE:AE,$B3)</f>
         <v>55.735062006764366</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="17">
         <f>INDEX(DATA!AF:AF,$B3)</f>
         <v>55.790304396843297</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="17">
         <f>INDEX(DATA!AG:AG,$B3)</f>
         <v>55.845546786922206</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AG3" s="17">
         <f>INDEX(DATA!AH:AH,$B3)</f>
         <v>55.900789177001123</v>
       </c>
-      <c r="AH3" s="18">
+      <c r="AH3" s="17">
         <f>INDEX(DATA!AI:AI,$B3)</f>
         <v>55.956031567080046</v>
       </c>
@@ -48650,127 +48650,127 @@
         <f>INDEX(Service!C:C,MATCH($A7,Service!$A:$A,0))</f>
         <v>Puerto Rico</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!E:E,$B7)=0,NA(),INDEX(DATA!E:E,$B7)),NA())</f>
         <v>36.113866967305526</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!F:F,$B7)=0,NA(),INDEX(DATA!F:F,$B7)),NA())</f>
         <v>37.340698985343856</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!G:G,$B7)=0,NA(),INDEX(DATA!G:G,$B7)),NA())</f>
         <v>38.567531003382186</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!H:H,$B7)=0,NA(),INDEX(DATA!H:H,$B7)),NA())</f>
         <v>39.794363021420523</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!I:I,$B7)=0,NA(),INDEX(DATA!I:I,$B7)),NA())</f>
         <v>41.021195039458846</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!J:J,$B7)=0,NA(),INDEX(DATA!J:J,$B7)),NA())</f>
         <v>42.248027057497183</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!K:K,$B7)=0,NA(),INDEX(DATA!K:K,$B7)),NA())</f>
         <v>43.474859075535512</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!L:L,$B7)=0,NA(),INDEX(DATA!L:L,$B7)),NA())</f>
         <v>44.701691093573842</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!M:M,$B7)=0,NA(),INDEX(DATA!M:M,$B7)),NA())</f>
         <v>45.928523111612179</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!N:N,$B7)=0,NA(),INDEX(DATA!N:N,$B7)),NA())</f>
         <v>47.155355129650509</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!O:O,$B7)=0,NA(),INDEX(DATA!O:O,$B7)),NA())</f>
         <v>48.382187147688839</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!P:P,$B7)=0,NA(),INDEX(DATA!P:P,$B7)),NA())</f>
         <v>49.084554678692221</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!Q:Q,$B7)=0,NA(),INDEX(DATA!Q:Q,$B7)),NA())</f>
         <v>49.786922209695604</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!R:R,$B7)=0,NA(),INDEX(DATA!R:R,$B7)),NA())</f>
         <v>50.489289740698986</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!S:S,$B7)=0,NA(),INDEX(DATA!S:S,$B7)),NA())</f>
         <v>51.191657271702361</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!T:T,$B7)=0,NA(),INDEX(DATA!T:T,$B7)),NA())</f>
         <v>51.894024802705751</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!U:U,$B7)=0,NA(),INDEX(DATA!U:U,$B7)),NA())</f>
         <v>52.596392333709133</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!V:V,$B7)=0,NA(),INDEX(DATA!V:V,$B7)),NA())</f>
         <v>53.298759864712522</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!W:W,$B7)=0,NA(),INDEX(DATA!W:W,$B7)),NA())</f>
         <v>54.001127395715898</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!X:X,$B7)=0,NA(),INDEX(DATA!X:X,$B7)),NA())</f>
         <v>54.703494926719273</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!Y:Y,$B7)=0,NA(),INDEX(DATA!Y:Y,$B7)),NA())</f>
         <v>55.405862457722662</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!Z:Z,$B7)=0,NA(),INDEX(DATA!Z:Z,$B7)),NA())</f>
         <v>55.460653889515221</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AA:AA,$B7)=0,NA(),INDEX(DATA!AA:AA,$B7)),NA())</f>
         <v>55.51544532130778</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AA7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AB:AB,$B7)=0,NA(),INDEX(DATA!AB:AB,$B7)),NA())</f>
         <v>55.570236753100332</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AB7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AC:AC,$B7)=0,NA(),INDEX(DATA!AC:AC,$B7)),NA())</f>
         <v>55.625028184892891</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AD:AD,$B7)=0,NA(),INDEX(DATA!AD:AD,$B7)),NA())</f>
         <v>55.679819616685457</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AE:AE,$B7)=0,NA(),INDEX(DATA!AE:AE,$B7)),NA())</f>
         <v>55.735062006764366</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AF:AF,$B7)=0,NA(),INDEX(DATA!AF:AF,$B7)),NA())</f>
         <v>55.790304396843297</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AG:AG,$B7)=0,NA(),INDEX(DATA!AG:AG,$B7)),NA())</f>
         <v>55.845546786922206</v>
       </c>
-      <c r="AG7" s="18">
+      <c r="AG7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AH:AH,$B7)=0,NA(),INDEX(DATA!AH:AH,$B7)),NA())</f>
         <v>55.900789177001123</v>
       </c>
-      <c r="AH7" s="18">
+      <c r="AH7" s="17">
         <f>IF($AI7,IF(INDEX(DATA!AI:AI,$B7)=0,NA(),INDEX(DATA!AI:AI,$B7)),NA())</f>
         <v>55.956031567080046</v>
       </c>
@@ -48790,127 +48790,127 @@
         <f>INDEX(Service!C:C,MATCH($A8,Service!$A:$A,0))</f>
         <v>Vietnam</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!E:E,$B8)=0,NA(),INDEX(DATA!E:E,$B8)),NA())</f>
         <v>28.805677593781688</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!F:F,$B8)=0,NA(),INDEX(DATA!F:F,$B8)),NA())</f>
         <v>29.545528280438727</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!G:G,$B8)=0,NA(),INDEX(DATA!G:G,$B8)),NA())</f>
         <v>30.285378967095767</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!H:H,$B8)=0,NA(),INDEX(DATA!H:H,$B8)),NA())</f>
         <v>31.025229653752806</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!I:I,$B8)=0,NA(),INDEX(DATA!I:I,$B8)),NA())</f>
         <v>31.765080340409845</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!J:J,$B8)=0,NA(),INDEX(DATA!J:J,$B8)),NA())</f>
         <v>32.504931027066888</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!K:K,$B8)=0,NA(),INDEX(DATA!K:K,$B8)),NA())</f>
         <v>33.244781713723924</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!L:L,$B8)=0,NA(),INDEX(DATA!L:L,$B8)),NA())</f>
         <v>33.984632400380967</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!M:M,$B8)=0,NA(),INDEX(DATA!M:M,$B8)),NA())</f>
         <v>34.724483087038003</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!N:N,$B8)=0,NA(),INDEX(DATA!N:N,$B8)),NA())</f>
         <v>35.464333773695046</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!O:O,$B8)=0,NA(),INDEX(DATA!O:O,$B8)),NA())</f>
         <v>37.883688034462807</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!P:P,$B8)=0,NA(),INDEX(DATA!P:P,$B8)),NA())</f>
         <v>38.395628274775788</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!Q:Q,$B8)=0,NA(),INDEX(DATA!Q:Q,$B8)),NA())</f>
         <v>38.978882627596199</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!R:R,$B8)=0,NA(),INDEX(DATA!R:R,$B8)),NA())</f>
         <v>39.556513045441356</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!S:S,$B8)=0,NA(),INDEX(DATA!S:S,$B8)),NA())</f>
         <v>40.07380268971523</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!T:T,$B8)=0,NA(),INDEX(DATA!T:T,$B8)),NA())</f>
         <v>40.591092333989096</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!U:U,$B8)=0,NA(),INDEX(DATA!U:U,$B8)),NA())</f>
         <v>41.108381978262969</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!V:V,$B8)=0,NA(),INDEX(DATA!V:V,$B8)),NA())</f>
         <v>41.625671622536849</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!W:W,$B8)=0,NA(),INDEX(DATA!W:W,$B8)),NA())</f>
         <v>42.142961266810715</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!X:X,$B8)=0,NA(),INDEX(DATA!X:X,$B8)),NA())</f>
         <v>42.660250911084596</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!Y:Y,$B8)=0,NA(),INDEX(DATA!Y:Y,$B8)),NA())</f>
         <v>43.177540555358469</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!Z:Z,$B8)=0,NA(),INDEX(DATA!Z:Z,$B8)),NA())</f>
         <v>43.612152094688298</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AA:AA,$B8)=0,NA(),INDEX(DATA!AA:AA,$B8)),NA())</f>
         <v>44.04676363401812</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AA8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AB:AB,$B8)=0,NA(),INDEX(DATA!AB:AB,$B8)),NA())</f>
         <v>44.481375173347956</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AB8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AC:AC,$B8)=0,NA(),INDEX(DATA!AC:AC,$B8)),NA())</f>
         <v>44.915986712677778</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AD:AD,$B8)=0,NA(),INDEX(DATA!AD:AD,$B8)),NA())</f>
         <v>45.350598252007615</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AE:AE,$B8)=0,NA(),INDEX(DATA!AE:AE,$B8)),NA())</f>
         <v>46.369142451704448</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AE8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AF:AF,$B8)=0,NA(),INDEX(DATA!AF:AF,$B8)),NA())</f>
         <v>46.49076015093366</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AF8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AG:AG,$B8)=0,NA(),INDEX(DATA!AG:AG,$B8)),NA())</f>
         <v>46.735543586931982</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AG8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AH:AH,$B8)=0,NA(),INDEX(DATA!AH:AH,$B8)),NA())</f>
         <v>46.980327022930304</v>
       </c>
-      <c r="AH8" s="18">
+      <c r="AH8" s="17">
         <f>IF($AI8,IF(INDEX(DATA!AI:AI,$B8)=0,NA(),INDEX(DATA!AI:AI,$B8)),NA())</f>
         <v>47.225110458928626</v>
       </c>
@@ -48930,127 +48930,127 @@
         <f>INDEX(Service!C:C,MATCH($A9,Service!$A:$A,0))</f>
         <v>Bhutan</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!E:E,$B9)=0,NA(),INDEX(DATA!E:E,$B9)),NA())</f>
         <v>53.650664554930117</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!F:F,$B9)=0,NA(),INDEX(DATA!F:F,$B9)),NA())</f>
         <v>53.863150910686386</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!G:G,$B9)=0,NA(),INDEX(DATA!G:G,$B9)),NA())</f>
         <v>54.075637266442641</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!H:H,$B9)=0,NA(),INDEX(DATA!H:H,$B9)),NA())</f>
         <v>54.288123622198917</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!I:I,$B9)=0,NA(),INDEX(DATA!I:I,$B9)),NA())</f>
         <v>63.980703517587934</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!J:J,$B9)=0,NA(),INDEX(DATA!J:J,$B9)),NA())</f>
         <v>64.230150753768839</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!K:K,$B9)=0,NA(),INDEX(DATA!K:K,$B9)),NA())</f>
         <v>64.479597989949752</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!L:L,$B9)=0,NA(),INDEX(DATA!L:L,$B9)),NA())</f>
         <v>64.729045226130651</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!M:M,$B9)=0,NA(),INDEX(DATA!M:M,$B9)),NA())</f>
         <v>64.97849246231155</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!N:N,$B9)=0,NA(),INDEX(DATA!N:N,$B9)),NA())</f>
         <v>65.227939698492463</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!O:O,$B9)=0,NA(),INDEX(DATA!O:O,$B9)),NA())</f>
         <v>65.477386934673362</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!P:P,$B9)=0,NA(),INDEX(DATA!P:P,$B9)),NA())</f>
         <v>65.726859296482417</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!Q:Q,$B9)=0,NA(),INDEX(DATA!Q:Q,$B9)),NA())</f>
         <v>65.976331658291471</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!R:R,$B9)=0,NA(),INDEX(DATA!R:R,$B9)),NA())</f>
         <v>66.225804020100497</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!S:S,$B9)=0,NA(),INDEX(DATA!S:S,$B9)),NA())</f>
         <v>69.410394312249124</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!T:T,$B9)=0,NA(),INDEX(DATA!T:T,$B9)),NA())</f>
         <v>69.670881758795289</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!U:U,$B9)=0,NA(),INDEX(DATA!U:U,$B9)),NA())</f>
         <v>69.931369205341454</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!V:V,$B9)=0,NA(),INDEX(DATA!V:V,$B9)),NA())</f>
         <v>70.191856651887605</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!W:W,$B9)=0,NA(),INDEX(DATA!W:W,$B9)),NA())</f>
         <v>70.45234409843377</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!X:X,$B9)=0,NA(),INDEX(DATA!X:X,$B9)),NA())</f>
         <v>70.712831544979935</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!Y:Y,$B9)=0,NA(),INDEX(DATA!Y:Y,$B9)),NA())</f>
         <v>70.973318991526085</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!Z:Z,$B9)=0,NA(),INDEX(DATA!Z:Z,$B9)),NA())</f>
         <v>71.025211847731981</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AA:AA,$B9)=0,NA(),INDEX(DATA!AA:AA,$B9)),NA())</f>
         <v>71.077104703937877</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AB:AB,$B9)=0,NA(),INDEX(DATA!AB:AB,$B9)),NA())</f>
         <v>71.128997560143773</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AB9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AC:AC,$B9)=0,NA(),INDEX(DATA!AC:AC,$B9)),NA())</f>
         <v>71.180890416349669</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AC9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AD:AD,$B9)=0,NA(),INDEX(DATA!AD:AD,$B9)),NA())</f>
         <v>71.232783272555551</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AE:AE,$B9)=0,NA(),INDEX(DATA!AE:AE,$B9)),NA())</f>
         <v>71.234270134228183</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AF:AF,$B9)=0,NA(),INDEX(DATA!AF:AF,$B9)),NA())</f>
         <v>71.286178691275168</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AF9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AG:AG,$B9)=0,NA(),INDEX(DATA!AG:AG,$B9)),NA())</f>
         <v>71.345568956476143</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AG9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AH:AH,$B9)=0,NA(),INDEX(DATA!AH:AH,$B9)),NA())</f>
         <v>71.3974829575249</v>
       </c>
-      <c r="AH9" s="18">
+      <c r="AH9" s="17">
         <f>IF($AI9,IF(INDEX(DATA!AI:AI,$B9)=0,NA(),INDEX(DATA!AI:AI,$B9)),NA())</f>
         <v>71.449396958573672</v>
       </c>
@@ -49070,127 +49070,127 @@
         <f>INDEX(Service!C:C,MATCH($A10,Service!$A:$A,0))</f>
         <v>Montenegro</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!E:E,$B10)=0,NA(),INDEX(DATA!E:E,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!F:F,$B10)=0,NA(),INDEX(DATA!F:F,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!G:G,$B10)=0,NA(),INDEX(DATA!G:G,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!H:H,$B10)=0,NA(),INDEX(DATA!H:H,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!I:I,$B10)=0,NA(),INDEX(DATA!I:I,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!J:J,$B10)=0,NA(),INDEX(DATA!J:J,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!K:K,$B10)=0,NA(),INDEX(DATA!K:K,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!L:L,$B10)=0,NA(),INDEX(DATA!L:L,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!M:M,$B10)=0,NA(),INDEX(DATA!M:M,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!N:N,$B10)=0,NA(),INDEX(DATA!N:N,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!O:O,$B10)=0,NA(),INDEX(DATA!O:O,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!P:P,$B10)=0,NA(),INDEX(DATA!P:P,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!Q:Q,$B10)=0,NA(),INDEX(DATA!Q:Q,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!R:R,$B10)=0,NA(),INDEX(DATA!R:R,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!S:S,$B10)=0,NA(),INDEX(DATA!S:S,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!T:T,$B10)=0,NA(),INDEX(DATA!T:T,$B10)),NA())</f>
         <v>46.542750929368033</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!U:U,$B10)=0,NA(),INDEX(DATA!U:U,$B10)),NA())</f>
         <v>55.509293680297404</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!V:V,$B10)=0,NA(),INDEX(DATA!V:V,$B10)),NA())</f>
         <v>57.003717472118964</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!W:W,$B10)=0,NA(),INDEX(DATA!W:W,$B10)),NA())</f>
         <v>58.498141263940518</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!X:X,$B10)=0,NA(),INDEX(DATA!X:X,$B10)),NA())</f>
         <v>59.992565055762078</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!Y:Y,$B10)=0,NA(),INDEX(DATA!Y:Y,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!Z:Z,$B10)=0,NA(),INDEX(DATA!Z:Z,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AA:AA,$B10)=0,NA(),INDEX(DATA!AA:AA,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AA10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AB:AB,$B10)=0,NA(),INDEX(DATA!AB:AB,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AB10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AC:AC,$B10)=0,NA(),INDEX(DATA!AC:AC,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AD:AD,$B10)=0,NA(),INDEX(DATA!AD:AD,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AE:AE,$B10)=0,NA(),INDEX(DATA!AE:AE,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AF:AF,$B10)=0,NA(),INDEX(DATA!AF:AF,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AF10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AG:AG,$B10)=0,NA(),INDEX(DATA!AG:AG,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AG10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AH:AH,$B10)=0,NA(),INDEX(DATA!AH:AH,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
-      <c r="AH10" s="18">
+      <c r="AH10" s="17">
         <f>IF($AI10,IF(INDEX(DATA!AI:AI,$B10)=0,NA(),INDEX(DATA!AI:AI,$B10)),NA())</f>
         <v>61.486988847583646</v>
       </c>
@@ -49210,127 +49210,127 @@
         <f>INDEX(Service!C:C,MATCH($A11,Service!$A:$A,0))</f>
         <v>Cuba</v>
       </c>
-      <c r="D11" s="18" t="e">
+      <c r="D11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!E:E,$B11)=0,NA(),INDEX(DATA!E:E,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="18" t="e">
+      <c r="E11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!F:F,$B11)=0,NA(),INDEX(DATA!F:F,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="18" t="e">
+      <c r="F11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!G:G,$B11)=0,NA(),INDEX(DATA!G:G,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="18" t="e">
+      <c r="G11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!H:H,$B11)=0,NA(),INDEX(DATA!H:H,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H11" s="18" t="e">
+      <c r="H11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!I:I,$B11)=0,NA(),INDEX(DATA!I:I,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="18" t="e">
+      <c r="I11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!J:J,$B11)=0,NA(),INDEX(DATA!J:J,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="18" t="e">
+      <c r="J11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!K:K,$B11)=0,NA(),INDEX(DATA!K:K,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K11" s="18" t="e">
+      <c r="K11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!L:L,$B11)=0,NA(),INDEX(DATA!L:L,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="18" t="e">
+      <c r="L11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!M:M,$B11)=0,NA(),INDEX(DATA!M:M,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M11" s="18" t="e">
+      <c r="M11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!N:N,$B11)=0,NA(),INDEX(DATA!N:N,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N11" s="18" t="e">
+      <c r="N11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!O:O,$B11)=0,NA(),INDEX(DATA!O:O,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O11" s="18" t="e">
+      <c r="O11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!P:P,$B11)=0,NA(),INDEX(DATA!P:P,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="18" t="e">
+      <c r="P11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!Q:Q,$B11)=0,NA(),INDEX(DATA!Q:Q,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q11" s="18" t="e">
+      <c r="Q11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!R:R,$B11)=0,NA(),INDEX(DATA!R:R,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="18" t="e">
+      <c r="R11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!S:S,$B11)=0,NA(),INDEX(DATA!S:S,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S11" s="18" t="e">
+      <c r="S11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!T:T,$B11)=0,NA(),INDEX(DATA!T:T,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T11" s="18" t="e">
+      <c r="T11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!U:U,$B11)=0,NA(),INDEX(DATA!U:U,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U11" s="18" t="e">
+      <c r="U11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!V:V,$B11)=0,NA(),INDEX(DATA!V:V,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V11" s="18" t="e">
+      <c r="V11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!W:W,$B11)=0,NA(),INDEX(DATA!W:W,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W11" s="18" t="e">
+      <c r="W11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!X:X,$B11)=0,NA(),INDEX(DATA!X:X,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X11" s="18" t="e">
+      <c r="X11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!Y:Y,$B11)=0,NA(),INDEX(DATA!Y:Y,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y11" s="18" t="e">
+      <c r="Y11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!Z:Z,$B11)=0,NA(),INDEX(DATA!Z:Z,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z11" s="18" t="e">
+      <c r="Z11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AA:AA,$B11)=0,NA(),INDEX(DATA!AA:AA,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA11" s="18" t="e">
+      <c r="AA11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AB:AB,$B11)=0,NA(),INDEX(DATA!AB:AB,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB11" s="18" t="e">
+      <c r="AB11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AC:AC,$B11)=0,NA(),INDEX(DATA!AC:AC,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC11" s="18" t="e">
+      <c r="AC11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AD:AD,$B11)=0,NA(),INDEX(DATA!AD:AD,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD11" s="18" t="e">
+      <c r="AD11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AE:AE,$B11)=0,NA(),INDEX(DATA!AE:AE,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE11" s="18" t="e">
+      <c r="AE11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AF:AF,$B11)=0,NA(),INDEX(DATA!AF:AF,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF11" s="18" t="e">
+      <c r="AF11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AG:AG,$B11)=0,NA(),INDEX(DATA!AG:AG,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG11" s="18" t="e">
+      <c r="AG11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AH:AH,$B11)=0,NA(),INDEX(DATA!AH:AH,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH11" s="18" t="e">
+      <c r="AH11" s="17" t="e">
         <f>IF($AI11,IF(INDEX(DATA!AI:AI,$B11)=0,NA(),INDEX(DATA!AI:AI,$B11)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -49350,127 +49350,127 @@
         <f>INDEX(Service!C:C,MATCH($A12,Service!$A:$A,0))</f>
         <v>Dominican Republic</v>
       </c>
-      <c r="D12" s="18" t="e">
+      <c r="D12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!E:E,$B12)=0,NA(),INDEX(DATA!E:E,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="18" t="e">
+      <c r="E12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!F:F,$B12)=0,NA(),INDEX(DATA!F:F,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F12" s="18" t="e">
+      <c r="F12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!G:G,$B12)=0,NA(),INDEX(DATA!G:G,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="18" t="e">
+      <c r="G12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!H:H,$B12)=0,NA(),INDEX(DATA!H:H,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H12" s="18" t="e">
+      <c r="H12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!I:I,$B12)=0,NA(),INDEX(DATA!I:I,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="18" t="e">
+      <c r="I12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!J:J,$B12)=0,NA(),INDEX(DATA!J:J,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="18" t="e">
+      <c r="J12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!K:K,$B12)=0,NA(),INDEX(DATA!K:K,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K12" s="18" t="e">
+      <c r="K12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!L:L,$B12)=0,NA(),INDEX(DATA!L:L,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L12" s="18" t="e">
+      <c r="L12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!M:M,$B12)=0,NA(),INDEX(DATA!M:M,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M12" s="18" t="e">
+      <c r="M12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!N:N,$B12)=0,NA(),INDEX(DATA!N:N,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N12" s="18" t="e">
+      <c r="N12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!O:O,$B12)=0,NA(),INDEX(DATA!O:O,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O12" s="18" t="e">
+      <c r="O12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!P:P,$B12)=0,NA(),INDEX(DATA!P:P,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P12" s="18" t="e">
+      <c r="P12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!Q:Q,$B12)=0,NA(),INDEX(DATA!Q:Q,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q12" s="18" t="e">
+      <c r="Q12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!R:R,$B12)=0,NA(),INDEX(DATA!R:R,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R12" s="18" t="e">
+      <c r="R12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!S:S,$B12)=0,NA(),INDEX(DATA!S:S,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S12" s="18" t="e">
+      <c r="S12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!T:T,$B12)=0,NA(),INDEX(DATA!T:T,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T12" s="18" t="e">
+      <c r="T12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!U:U,$B12)=0,NA(),INDEX(DATA!U:U,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U12" s="18" t="e">
+      <c r="U12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!V:V,$B12)=0,NA(),INDEX(DATA!V:V,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V12" s="18" t="e">
+      <c r="V12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!W:W,$B12)=0,NA(),INDEX(DATA!W:W,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W12" s="18" t="e">
+      <c r="W12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!X:X,$B12)=0,NA(),INDEX(DATA!X:X,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X12" s="18" t="e">
+      <c r="X12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!Y:Y,$B12)=0,NA(),INDEX(DATA!Y:Y,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y12" s="18" t="e">
+      <c r="Y12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!Z:Z,$B12)=0,NA(),INDEX(DATA!Z:Z,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z12" s="18" t="e">
+      <c r="Z12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AA:AA,$B12)=0,NA(),INDEX(DATA!AA:AA,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA12" s="18" t="e">
+      <c r="AA12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AB:AB,$B12)=0,NA(),INDEX(DATA!AB:AB,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB12" s="18" t="e">
+      <c r="AB12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AC:AC,$B12)=0,NA(),INDEX(DATA!AC:AC,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC12" s="18" t="e">
+      <c r="AC12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AD:AD,$B12)=0,NA(),INDEX(DATA!AD:AD,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD12" s="18" t="e">
+      <c r="AD12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AE:AE,$B12)=0,NA(),INDEX(DATA!AE:AE,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE12" s="18" t="e">
+      <c r="AE12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AF:AF,$B12)=0,NA(),INDEX(DATA!AF:AF,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF12" s="18" t="e">
+      <c r="AF12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AG:AG,$B12)=0,NA(),INDEX(DATA!AG:AG,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG12" s="18" t="e">
+      <c r="AG12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AH:AH,$B12)=0,NA(),INDEX(DATA!AH:AH,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH12" s="18" t="e">
+      <c r="AH12" s="17" t="e">
         <f>IF($AI12,IF(INDEX(DATA!AI:AI,$B12)=0,NA(),INDEX(DATA!AI:AI,$B12)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -49490,127 +49490,127 @@
         <f>INDEX(Service!C:C,MATCH($A13,Service!$A:$A,0))</f>
         <v>Fiji</v>
       </c>
-      <c r="D13" s="18" t="e">
+      <c r="D13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!E:E,$B13)=0,NA(),INDEX(DATA!E:E,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E13" s="18" t="e">
+      <c r="E13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!F:F,$B13)=0,NA(),INDEX(DATA!F:F,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="18" t="e">
+      <c r="F13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!G:G,$B13)=0,NA(),INDEX(DATA!G:G,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="18" t="e">
+      <c r="G13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!H:H,$B13)=0,NA(),INDEX(DATA!H:H,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H13" s="18" t="e">
+      <c r="H13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!I:I,$B13)=0,NA(),INDEX(DATA!I:I,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="18" t="e">
+      <c r="I13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!J:J,$B13)=0,NA(),INDEX(DATA!J:J,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="18" t="e">
+      <c r="J13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!K:K,$B13)=0,NA(),INDEX(DATA!K:K,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="18" t="e">
+      <c r="K13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!L:L,$B13)=0,NA(),INDEX(DATA!L:L,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="18" t="e">
+      <c r="L13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!M:M,$B13)=0,NA(),INDEX(DATA!M:M,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="18" t="e">
+      <c r="M13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!N:N,$B13)=0,NA(),INDEX(DATA!N:N,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N13" s="18" t="e">
+      <c r="N13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!O:O,$B13)=0,NA(),INDEX(DATA!O:O,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O13" s="18" t="e">
+      <c r="O13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!P:P,$B13)=0,NA(),INDEX(DATA!P:P,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="18" t="e">
+      <c r="P13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!Q:Q,$B13)=0,NA(),INDEX(DATA!Q:Q,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="18" t="e">
+      <c r="Q13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!R:R,$B13)=0,NA(),INDEX(DATA!R:R,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="18" t="e">
+      <c r="R13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!S:S,$B13)=0,NA(),INDEX(DATA!S:S,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S13" s="18" t="e">
+      <c r="S13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!T:T,$B13)=0,NA(),INDEX(DATA!T:T,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T13" s="18" t="e">
+      <c r="T13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!U:U,$B13)=0,NA(),INDEX(DATA!U:U,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U13" s="18" t="e">
+      <c r="U13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!V:V,$B13)=0,NA(),INDEX(DATA!V:V,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V13" s="18" t="e">
+      <c r="V13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!W:W,$B13)=0,NA(),INDEX(DATA!W:W,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W13" s="18" t="e">
+      <c r="W13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!X:X,$B13)=0,NA(),INDEX(DATA!X:X,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X13" s="18" t="e">
+      <c r="X13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!Y:Y,$B13)=0,NA(),INDEX(DATA!Y:Y,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y13" s="18" t="e">
+      <c r="Y13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!Z:Z,$B13)=0,NA(),INDEX(DATA!Z:Z,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z13" s="18" t="e">
+      <c r="Z13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AA:AA,$B13)=0,NA(),INDEX(DATA!AA:AA,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA13" s="18" t="e">
+      <c r="AA13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AB:AB,$B13)=0,NA(),INDEX(DATA!AB:AB,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB13" s="18" t="e">
+      <c r="AB13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AC:AC,$B13)=0,NA(),INDEX(DATA!AC:AC,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC13" s="18" t="e">
+      <c r="AC13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AD:AD,$B13)=0,NA(),INDEX(DATA!AD:AD,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD13" s="18" t="e">
+      <c r="AD13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AE:AE,$B13)=0,NA(),INDEX(DATA!AE:AE,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE13" s="18" t="e">
+      <c r="AE13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AF:AF,$B13)=0,NA(),INDEX(DATA!AF:AF,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF13" s="18" t="e">
+      <c r="AF13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AG:AG,$B13)=0,NA(),INDEX(DATA!AG:AG,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG13" s="18" t="e">
+      <c r="AG13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AH:AH,$B13)=0,NA(),INDEX(DATA!AH:AH,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH13" s="18" t="e">
+      <c r="AH13" s="17" t="e">
         <f>IF($AI13,IF(INDEX(DATA!AI:AI,$B13)=0,NA(),INDEX(DATA!AI:AI,$B13)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -49630,127 +49630,127 @@
         <f>INDEX(Service!C:C,MATCH($A14,Service!$A:$A,0))</f>
         <v>Spain</v>
       </c>
-      <c r="D14" s="18" t="e">
+      <c r="D14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!E:E,$B14)=0,NA(),INDEX(DATA!E:E,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="18" t="e">
+      <c r="E14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!F:F,$B14)=0,NA(),INDEX(DATA!F:F,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="18" t="e">
+      <c r="F14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!G:G,$B14)=0,NA(),INDEX(DATA!G:G,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="18" t="e">
+      <c r="G14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!H:H,$B14)=0,NA(),INDEX(DATA!H:H,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="18" t="e">
+      <c r="H14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!I:I,$B14)=0,NA(),INDEX(DATA!I:I,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="18" t="e">
+      <c r="I14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!J:J,$B14)=0,NA(),INDEX(DATA!J:J,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="18" t="e">
+      <c r="J14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!K:K,$B14)=0,NA(),INDEX(DATA!K:K,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="18" t="e">
+      <c r="K14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!L:L,$B14)=0,NA(),INDEX(DATA!L:L,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="18" t="e">
+      <c r="L14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!M:M,$B14)=0,NA(),INDEX(DATA!M:M,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="18" t="e">
+      <c r="M14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!N:N,$B14)=0,NA(),INDEX(DATA!N:N,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="18" t="e">
+      <c r="N14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!O:O,$B14)=0,NA(),INDEX(DATA!O:O,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O14" s="18" t="e">
+      <c r="O14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!P:P,$B14)=0,NA(),INDEX(DATA!P:P,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="18" t="e">
+      <c r="P14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!Q:Q,$B14)=0,NA(),INDEX(DATA!Q:Q,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="18" t="e">
+      <c r="Q14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!R:R,$B14)=0,NA(),INDEX(DATA!R:R,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="18" t="e">
+      <c r="R14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!S:S,$B14)=0,NA(),INDEX(DATA!S:S,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S14" s="18" t="e">
+      <c r="S14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!T:T,$B14)=0,NA(),INDEX(DATA!T:T,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T14" s="18" t="e">
+      <c r="T14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!U:U,$B14)=0,NA(),INDEX(DATA!U:U,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U14" s="18" t="e">
+      <c r="U14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!V:V,$B14)=0,NA(),INDEX(DATA!V:V,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V14" s="18" t="e">
+      <c r="V14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!W:W,$B14)=0,NA(),INDEX(DATA!W:W,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W14" s="18" t="e">
+      <c r="W14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!X:X,$B14)=0,NA(),INDEX(DATA!X:X,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X14" s="18" t="e">
+      <c r="X14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!Y:Y,$B14)=0,NA(),INDEX(DATA!Y:Y,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y14" s="18" t="e">
+      <c r="Y14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!Z:Z,$B14)=0,NA(),INDEX(DATA!Z:Z,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z14" s="18" t="e">
+      <c r="Z14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AA:AA,$B14)=0,NA(),INDEX(DATA!AA:AA,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA14" s="18" t="e">
+      <c r="AA14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AB:AB,$B14)=0,NA(),INDEX(DATA!AB:AB,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB14" s="18" t="e">
+      <c r="AB14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AC:AC,$B14)=0,NA(),INDEX(DATA!AC:AC,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC14" s="18" t="e">
+      <c r="AC14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AD:AD,$B14)=0,NA(),INDEX(DATA!AD:AD,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD14" s="18" t="e">
+      <c r="AD14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AE:AE,$B14)=0,NA(),INDEX(DATA!AE:AE,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE14" s="18" t="e">
+      <c r="AE14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AF:AF,$B14)=0,NA(),INDEX(DATA!AF:AF,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF14" s="18" t="e">
+      <c r="AF14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AG:AG,$B14)=0,NA(),INDEX(DATA!AG:AG,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG14" s="18" t="e">
+      <c r="AG14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AH:AH,$B14)=0,NA(),INDEX(DATA!AH:AH,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH14" s="18" t="e">
+      <c r="AH14" s="17" t="e">
         <f>IF($AI14,IF(INDEX(DATA!AI:AI,$B14)=0,NA(),INDEX(DATA!AI:AI,$B14)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -49770,127 +49770,127 @@
         <f>INDEX(Service!C:C,MATCH($A15,Service!$A:$A,0))</f>
         <v>Cabo Verde</v>
       </c>
-      <c r="D15" s="18" t="e">
+      <c r="D15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!E:E,$B15)=0,NA(),INDEX(DATA!E:E,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="18" t="e">
+      <c r="E15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!F:F,$B15)=0,NA(),INDEX(DATA!F:F,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="18" t="e">
+      <c r="F15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!G:G,$B15)=0,NA(),INDEX(DATA!G:G,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="18" t="e">
+      <c r="G15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!H:H,$B15)=0,NA(),INDEX(DATA!H:H,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="18" t="e">
+      <c r="H15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!I:I,$B15)=0,NA(),INDEX(DATA!I:I,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="18" t="e">
+      <c r="I15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!J:J,$B15)=0,NA(),INDEX(DATA!J:J,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="18" t="e">
+      <c r="J15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!K:K,$B15)=0,NA(),INDEX(DATA!K:K,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="18" t="e">
+      <c r="K15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!L:L,$B15)=0,NA(),INDEX(DATA!L:L,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="18" t="e">
+      <c r="L15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!M:M,$B15)=0,NA(),INDEX(DATA!M:M,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="18" t="e">
+      <c r="M15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!N:N,$B15)=0,NA(),INDEX(DATA!N:N,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="18" t="e">
+      <c r="N15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!O:O,$B15)=0,NA(),INDEX(DATA!O:O,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O15" s="18" t="e">
+      <c r="O15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!P:P,$B15)=0,NA(),INDEX(DATA!P:P,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="18" t="e">
+      <c r="P15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!Q:Q,$B15)=0,NA(),INDEX(DATA!Q:Q,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="18" t="e">
+      <c r="Q15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!R:R,$B15)=0,NA(),INDEX(DATA!R:R,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="18" t="e">
+      <c r="R15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!S:S,$B15)=0,NA(),INDEX(DATA!S:S,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S15" s="18" t="e">
+      <c r="S15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!T:T,$B15)=0,NA(),INDEX(DATA!T:T,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T15" s="18" t="e">
+      <c r="T15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!U:U,$B15)=0,NA(),INDEX(DATA!U:U,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U15" s="18" t="e">
+      <c r="U15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!V:V,$B15)=0,NA(),INDEX(DATA!V:V,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V15" s="18" t="e">
+      <c r="V15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!W:W,$B15)=0,NA(),INDEX(DATA!W:W,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W15" s="18" t="e">
+      <c r="W15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!X:X,$B15)=0,NA(),INDEX(DATA!X:X,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X15" s="18" t="e">
+      <c r="X15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!Y:Y,$B15)=0,NA(),INDEX(DATA!Y:Y,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y15" s="18" t="e">
+      <c r="Y15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!Z:Z,$B15)=0,NA(),INDEX(DATA!Z:Z,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z15" s="18" t="e">
+      <c r="Z15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AA:AA,$B15)=0,NA(),INDEX(DATA!AA:AA,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA15" s="18" t="e">
+      <c r="AA15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AB:AB,$B15)=0,NA(),INDEX(DATA!AB:AB,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB15" s="18" t="e">
+      <c r="AB15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AC:AC,$B15)=0,NA(),INDEX(DATA!AC:AC,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC15" s="18" t="e">
+      <c r="AC15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AD:AD,$B15)=0,NA(),INDEX(DATA!AD:AD,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD15" s="18" t="e">
+      <c r="AD15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AE:AE,$B15)=0,NA(),INDEX(DATA!AE:AE,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE15" s="18" t="e">
+      <c r="AE15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AF:AF,$B15)=0,NA(),INDEX(DATA!AF:AF,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF15" s="18" t="e">
+      <c r="AF15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AG:AG,$B15)=0,NA(),INDEX(DATA!AG:AG,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG15" s="18" t="e">
+      <c r="AG15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AH:AH,$B15)=0,NA(),INDEX(DATA!AH:AH,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH15" s="18" t="e">
+      <c r="AH15" s="17" t="e">
         <f>IF($AI15,IF(INDEX(DATA!AI:AI,$B15)=0,NA(),INDEX(DATA!AI:AI,$B15)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -49910,127 +49910,127 @@
         <f>INDEX(Service!C:C,MATCH($A16,Service!$A:$A,0))</f>
         <v>Guam</v>
       </c>
-      <c r="D16" s="18" t="e">
+      <c r="D16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!E:E,$B16)=0,NA(),INDEX(DATA!E:E,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="18" t="e">
+      <c r="E16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!F:F,$B16)=0,NA(),INDEX(DATA!F:F,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="18" t="e">
+      <c r="F16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!G:G,$B16)=0,NA(),INDEX(DATA!G:G,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="18" t="e">
+      <c r="G16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!H:H,$B16)=0,NA(),INDEX(DATA!H:H,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="18" t="e">
+      <c r="H16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!I:I,$B16)=0,NA(),INDEX(DATA!I:I,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="18" t="e">
+      <c r="I16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!J:J,$B16)=0,NA(),INDEX(DATA!J:J,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="18" t="e">
+      <c r="J16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!K:K,$B16)=0,NA(),INDEX(DATA!K:K,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="18" t="e">
+      <c r="K16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!L:L,$B16)=0,NA(),INDEX(DATA!L:L,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="18" t="e">
+      <c r="L16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!M:M,$B16)=0,NA(),INDEX(DATA!M:M,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="18" t="e">
+      <c r="M16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!N:N,$B16)=0,NA(),INDEX(DATA!N:N,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="18" t="e">
+      <c r="N16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!O:O,$B16)=0,NA(),INDEX(DATA!O:O,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="18" t="e">
+      <c r="O16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!P:P,$B16)=0,NA(),INDEX(DATA!P:P,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="18" t="e">
+      <c r="P16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!Q:Q,$B16)=0,NA(),INDEX(DATA!Q:Q,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="18" t="e">
+      <c r="Q16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!R:R,$B16)=0,NA(),INDEX(DATA!R:R,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="18" t="e">
+      <c r="R16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!S:S,$B16)=0,NA(),INDEX(DATA!S:S,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S16" s="18" t="e">
+      <c r="S16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!T:T,$B16)=0,NA(),INDEX(DATA!T:T,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T16" s="18" t="e">
+      <c r="T16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!U:U,$B16)=0,NA(),INDEX(DATA!U:U,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U16" s="18" t="e">
+      <c r="U16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!V:V,$B16)=0,NA(),INDEX(DATA!V:V,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V16" s="18" t="e">
+      <c r="V16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!W:W,$B16)=0,NA(),INDEX(DATA!W:W,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W16" s="18" t="e">
+      <c r="W16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!X:X,$B16)=0,NA(),INDEX(DATA!X:X,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X16" s="18" t="e">
+      <c r="X16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!Y:Y,$B16)=0,NA(),INDEX(DATA!Y:Y,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y16" s="18" t="e">
+      <c r="Y16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!Z:Z,$B16)=0,NA(),INDEX(DATA!Z:Z,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z16" s="18" t="e">
+      <c r="Z16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AA:AA,$B16)=0,NA(),INDEX(DATA!AA:AA,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA16" s="18" t="e">
+      <c r="AA16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AB:AB,$B16)=0,NA(),INDEX(DATA!AB:AB,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB16" s="18" t="e">
+      <c r="AB16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AC:AC,$B16)=0,NA(),INDEX(DATA!AC:AC,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC16" s="18" t="e">
+      <c r="AC16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AD:AD,$B16)=0,NA(),INDEX(DATA!AD:AD,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD16" s="18" t="e">
+      <c r="AD16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AE:AE,$B16)=0,NA(),INDEX(DATA!AE:AE,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE16" s="18" t="e">
+      <c r="AE16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AF:AF,$B16)=0,NA(),INDEX(DATA!AF:AF,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF16" s="18" t="e">
+      <c r="AF16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AG:AG,$B16)=0,NA(),INDEX(DATA!AG:AG,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG16" s="18" t="e">
+      <c r="AG16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AH:AH,$B16)=0,NA(),INDEX(DATA!AH:AH,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH16" s="18" t="e">
+      <c r="AH16" s="17" t="e">
         <f>IF($AI16,IF(INDEX(DATA!AI:AI,$B16)=0,NA(),INDEX(DATA!AI:AI,$B16)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -50050,127 +50050,127 @@
         <f>INDEX(Service!C:C,MATCH($A17,Service!$A:$A,0))</f>
         <v>Uruguay</v>
       </c>
-      <c r="D17" s="18" t="e">
+      <c r="D17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!E:E,$B17)=0,NA(),INDEX(DATA!E:E,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="18" t="e">
+      <c r="E17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!F:F,$B17)=0,NA(),INDEX(DATA!F:F,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="18" t="e">
+      <c r="F17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!G:G,$B17)=0,NA(),INDEX(DATA!G:G,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="18" t="e">
+      <c r="G17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!H:H,$B17)=0,NA(),INDEX(DATA!H:H,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="18" t="e">
+      <c r="H17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!I:I,$B17)=0,NA(),INDEX(DATA!I:I,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="18" t="e">
+      <c r="I17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!J:J,$B17)=0,NA(),INDEX(DATA!J:J,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="18" t="e">
+      <c r="J17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!K:K,$B17)=0,NA(),INDEX(DATA!K:K,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="18" t="e">
+      <c r="K17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!L:L,$B17)=0,NA(),INDEX(DATA!L:L,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="18" t="e">
+      <c r="L17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!M:M,$B17)=0,NA(),INDEX(DATA!M:M,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="18" t="e">
+      <c r="M17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!N:N,$B17)=0,NA(),INDEX(DATA!N:N,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="18" t="e">
+      <c r="N17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!O:O,$B17)=0,NA(),INDEX(DATA!O:O,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="18" t="e">
+      <c r="O17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!P:P,$B17)=0,NA(),INDEX(DATA!P:P,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="18" t="e">
+      <c r="P17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!Q:Q,$B17)=0,NA(),INDEX(DATA!Q:Q,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="18" t="e">
+      <c r="Q17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!R:R,$B17)=0,NA(),INDEX(DATA!R:R,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R17" s="18" t="e">
+      <c r="R17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!S:S,$B17)=0,NA(),INDEX(DATA!S:S,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S17" s="18" t="e">
+      <c r="S17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!T:T,$B17)=0,NA(),INDEX(DATA!T:T,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T17" s="18" t="e">
+      <c r="T17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!U:U,$B17)=0,NA(),INDEX(DATA!U:U,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U17" s="18" t="e">
+      <c r="U17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!V:V,$B17)=0,NA(),INDEX(DATA!V:V,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V17" s="18" t="e">
+      <c r="V17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!W:W,$B17)=0,NA(),INDEX(DATA!W:W,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W17" s="18" t="e">
+      <c r="W17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!X:X,$B17)=0,NA(),INDEX(DATA!X:X,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X17" s="18" t="e">
+      <c r="X17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!Y:Y,$B17)=0,NA(),INDEX(DATA!Y:Y,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y17" s="18" t="e">
+      <c r="Y17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!Z:Z,$B17)=0,NA(),INDEX(DATA!Z:Z,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z17" s="18" t="e">
+      <c r="Z17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AA:AA,$B17)=0,NA(),INDEX(DATA!AA:AA,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA17" s="18" t="e">
+      <c r="AA17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AB:AB,$B17)=0,NA(),INDEX(DATA!AB:AB,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB17" s="18" t="e">
+      <c r="AB17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AC:AC,$B17)=0,NA(),INDEX(DATA!AC:AC,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC17" s="18" t="e">
+      <c r="AC17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AD:AD,$B17)=0,NA(),INDEX(DATA!AD:AD,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD17" s="18" t="e">
+      <c r="AD17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AE:AE,$B17)=0,NA(),INDEX(DATA!AE:AE,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE17" s="18" t="e">
+      <c r="AE17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AF:AF,$B17)=0,NA(),INDEX(DATA!AF:AF,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF17" s="18" t="e">
+      <c r="AF17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AG:AG,$B17)=0,NA(),INDEX(DATA!AG:AG,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG17" s="18" t="e">
+      <c r="AG17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AH:AH,$B17)=0,NA(),INDEX(DATA!AH:AH,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH17" s="18" t="e">
+      <c r="AH17" s="17" t="e">
         <f>IF($AI17,IF(INDEX(DATA!AI:AI,$B17)=0,NA(),INDEX(DATA!AI:AI,$B17)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -50190,127 +50190,127 @@
         <f>INDEX(Service!C:C,MATCH($A18,Service!$A:$A,0))</f>
         <v>Jamaica</v>
       </c>
-      <c r="D18" s="18" t="e">
+      <c r="D18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!E:E,$B18)=0,NA(),INDEX(DATA!E:E,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="18" t="e">
+      <c r="E18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!F:F,$B18)=0,NA(),INDEX(DATA!F:F,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="18" t="e">
+      <c r="F18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!G:G,$B18)=0,NA(),INDEX(DATA!G:G,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="18" t="e">
+      <c r="G18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!H:H,$B18)=0,NA(),INDEX(DATA!H:H,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="18" t="e">
+      <c r="H18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!I:I,$B18)=0,NA(),INDEX(DATA!I:I,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="18" t="e">
+      <c r="I18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!J:J,$B18)=0,NA(),INDEX(DATA!J:J,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="18" t="e">
+      <c r="J18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!K:K,$B18)=0,NA(),INDEX(DATA!K:K,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="18" t="e">
+      <c r="K18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!L:L,$B18)=0,NA(),INDEX(DATA!L:L,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="18" t="e">
+      <c r="L18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!M:M,$B18)=0,NA(),INDEX(DATA!M:M,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="18" t="e">
+      <c r="M18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!N:N,$B18)=0,NA(),INDEX(DATA!N:N,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="18" t="e">
+      <c r="N18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!O:O,$B18)=0,NA(),INDEX(DATA!O:O,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="18" t="e">
+      <c r="O18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!P:P,$B18)=0,NA(),INDEX(DATA!P:P,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="18" t="e">
+      <c r="P18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!Q:Q,$B18)=0,NA(),INDEX(DATA!Q:Q,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="18" t="e">
+      <c r="Q18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!R:R,$B18)=0,NA(),INDEX(DATA!R:R,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="18" t="e">
+      <c r="R18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!S:S,$B18)=0,NA(),INDEX(DATA!S:S,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S18" s="18" t="e">
+      <c r="S18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!T:T,$B18)=0,NA(),INDEX(DATA!T:T,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T18" s="18" t="e">
+      <c r="T18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!U:U,$B18)=0,NA(),INDEX(DATA!U:U,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U18" s="18" t="e">
+      <c r="U18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!V:V,$B18)=0,NA(),INDEX(DATA!V:V,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V18" s="18" t="e">
+      <c r="V18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!W:W,$B18)=0,NA(),INDEX(DATA!W:W,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W18" s="18" t="e">
+      <c r="W18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!X:X,$B18)=0,NA(),INDEX(DATA!X:X,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X18" s="18" t="e">
+      <c r="X18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!Y:Y,$B18)=0,NA(),INDEX(DATA!Y:Y,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y18" s="18" t="e">
+      <c r="Y18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!Z:Z,$B18)=0,NA(),INDEX(DATA!Z:Z,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z18" s="18" t="e">
+      <c r="Z18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AA:AA,$B18)=0,NA(),INDEX(DATA!AA:AA,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA18" s="18" t="e">
+      <c r="AA18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AB:AB,$B18)=0,NA(),INDEX(DATA!AB:AB,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB18" s="18" t="e">
+      <c r="AB18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AC:AC,$B18)=0,NA(),INDEX(DATA!AC:AC,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC18" s="18" t="e">
+      <c r="AC18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AD:AD,$B18)=0,NA(),INDEX(DATA!AD:AD,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD18" s="18" t="e">
+      <c r="AD18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AE:AE,$B18)=0,NA(),INDEX(DATA!AE:AE,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE18" s="18" t="e">
+      <c r="AE18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AF:AF,$B18)=0,NA(),INDEX(DATA!AF:AF,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF18" s="18" t="e">
+      <c r="AF18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AG:AG,$B18)=0,NA(),INDEX(DATA!AG:AG,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG18" s="18" t="e">
+      <c r="AG18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AH:AH,$B18)=0,NA(),INDEX(DATA!AH:AH,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH18" s="18" t="e">
+      <c r="AH18" s="17" t="e">
         <f>IF($AI18,IF(INDEX(DATA!AI:AI,$B18)=0,NA(),INDEX(DATA!AI:AI,$B18)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -50330,127 +50330,127 @@
         <f>INDEX(Service!C:C,MATCH($A19,Service!$A:$A,0))</f>
         <v>Palau</v>
       </c>
-      <c r="D19" s="18" t="e">
+      <c r="D19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!E:E,$B19)=0,NA(),INDEX(DATA!E:E,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="18" t="e">
+      <c r="E19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!F:F,$B19)=0,NA(),INDEX(DATA!F:F,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="18" t="e">
+      <c r="F19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!G:G,$B19)=0,NA(),INDEX(DATA!G:G,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="18" t="e">
+      <c r="G19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!H:H,$B19)=0,NA(),INDEX(DATA!H:H,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H19" s="18" t="e">
+      <c r="H19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!I:I,$B19)=0,NA(),INDEX(DATA!I:I,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="18" t="e">
+      <c r="I19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!J:J,$B19)=0,NA(),INDEX(DATA!J:J,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="18" t="e">
+      <c r="J19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!K:K,$B19)=0,NA(),INDEX(DATA!K:K,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K19" s="18" t="e">
+      <c r="K19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!L:L,$B19)=0,NA(),INDEX(DATA!L:L,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L19" s="18" t="e">
+      <c r="L19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!M:M,$B19)=0,NA(),INDEX(DATA!M:M,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M19" s="18" t="e">
+      <c r="M19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!N:N,$B19)=0,NA(),INDEX(DATA!N:N,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N19" s="18" t="e">
+      <c r="N19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!O:O,$B19)=0,NA(),INDEX(DATA!O:O,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O19" s="18" t="e">
+      <c r="O19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!P:P,$B19)=0,NA(),INDEX(DATA!P:P,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="18" t="e">
+      <c r="P19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!Q:Q,$B19)=0,NA(),INDEX(DATA!Q:Q,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q19" s="18" t="e">
+      <c r="Q19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!R:R,$B19)=0,NA(),INDEX(DATA!R:R,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R19" s="18" t="e">
+      <c r="R19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!S:S,$B19)=0,NA(),INDEX(DATA!S:S,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S19" s="18" t="e">
+      <c r="S19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!T:T,$B19)=0,NA(),INDEX(DATA!T:T,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T19" s="18" t="e">
+      <c r="T19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!U:U,$B19)=0,NA(),INDEX(DATA!U:U,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U19" s="18" t="e">
+      <c r="U19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!V:V,$B19)=0,NA(),INDEX(DATA!V:V,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V19" s="18" t="e">
+      <c r="V19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!W:W,$B19)=0,NA(),INDEX(DATA!W:W,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W19" s="18" t="e">
+      <c r="W19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!X:X,$B19)=0,NA(),INDEX(DATA!X:X,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X19" s="18" t="e">
+      <c r="X19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!Y:Y,$B19)=0,NA(),INDEX(DATA!Y:Y,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y19" s="18" t="e">
+      <c r="Y19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!Z:Z,$B19)=0,NA(),INDEX(DATA!Z:Z,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z19" s="18" t="e">
+      <c r="Z19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AA:AA,$B19)=0,NA(),INDEX(DATA!AA:AA,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA19" s="18" t="e">
+      <c r="AA19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AB:AB,$B19)=0,NA(),INDEX(DATA!AB:AB,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB19" s="18" t="e">
+      <c r="AB19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AC:AC,$B19)=0,NA(),INDEX(DATA!AC:AC,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC19" s="18" t="e">
+      <c r="AC19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AD:AD,$B19)=0,NA(),INDEX(DATA!AD:AD,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD19" s="18" t="e">
+      <c r="AD19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AE:AE,$B19)=0,NA(),INDEX(DATA!AE:AE,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE19" s="18" t="e">
+      <c r="AE19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AF:AF,$B19)=0,NA(),INDEX(DATA!AF:AF,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF19" s="18" t="e">
+      <c r="AF19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AG:AG,$B19)=0,NA(),INDEX(DATA!AG:AG,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG19" s="18" t="e">
+      <c r="AG19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AH:AH,$B19)=0,NA(),INDEX(DATA!AH:AH,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH19" s="18" t="e">
+      <c r="AH19" s="17" t="e">
         <f>IF($AI19,IF(INDEX(DATA!AI:AI,$B19)=0,NA(),INDEX(DATA!AI:AI,$B19)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -50470,127 +50470,127 @@
         <f>INDEX(Service!C:C,MATCH($A20,Service!$A:$A,0))</f>
         <v>China</v>
       </c>
-      <c r="D20" s="18" t="e">
+      <c r="D20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!E:E,$B20)=0,NA(),INDEX(DATA!E:E,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="18" t="e">
+      <c r="E20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!F:F,$B20)=0,NA(),INDEX(DATA!F:F,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="18" t="e">
+      <c r="F20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!G:G,$B20)=0,NA(),INDEX(DATA!G:G,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="18" t="e">
+      <c r="G20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!H:H,$B20)=0,NA(),INDEX(DATA!H:H,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H20" s="18" t="e">
+      <c r="H20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!I:I,$B20)=0,NA(),INDEX(DATA!I:I,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I20" s="18" t="e">
+      <c r="I20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!J:J,$B20)=0,NA(),INDEX(DATA!J:J,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="18" t="e">
+      <c r="J20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!K:K,$B20)=0,NA(),INDEX(DATA!K:K,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="18" t="e">
+      <c r="K20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!L:L,$B20)=0,NA(),INDEX(DATA!L:L,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="18" t="e">
+      <c r="L20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!M:M,$B20)=0,NA(),INDEX(DATA!M:M,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="18" t="e">
+      <c r="M20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!N:N,$B20)=0,NA(),INDEX(DATA!N:N,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="18" t="e">
+      <c r="N20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!O:O,$B20)=0,NA(),INDEX(DATA!O:O,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="18" t="e">
+      <c r="O20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!P:P,$B20)=0,NA(),INDEX(DATA!P:P,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="18" t="e">
+      <c r="P20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!Q:Q,$B20)=0,NA(),INDEX(DATA!Q:Q,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="18" t="e">
+      <c r="Q20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!R:R,$B20)=0,NA(),INDEX(DATA!R:R,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R20" s="18" t="e">
+      <c r="R20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!S:S,$B20)=0,NA(),INDEX(DATA!S:S,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S20" s="18" t="e">
+      <c r="S20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!T:T,$B20)=0,NA(),INDEX(DATA!T:T,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T20" s="18" t="e">
+      <c r="T20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!U:U,$B20)=0,NA(),INDEX(DATA!U:U,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U20" s="18" t="e">
+      <c r="U20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!V:V,$B20)=0,NA(),INDEX(DATA!V:V,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V20" s="18" t="e">
+      <c r="V20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!W:W,$B20)=0,NA(),INDEX(DATA!W:W,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W20" s="18" t="e">
+      <c r="W20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!X:X,$B20)=0,NA(),INDEX(DATA!X:X,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X20" s="18" t="e">
+      <c r="X20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!Y:Y,$B20)=0,NA(),INDEX(DATA!Y:Y,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y20" s="18" t="e">
+      <c r="Y20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!Z:Z,$B20)=0,NA(),INDEX(DATA!Z:Z,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z20" s="18" t="e">
+      <c r="Z20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AA:AA,$B20)=0,NA(),INDEX(DATA!AA:AA,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA20" s="18" t="e">
+      <c r="AA20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AB:AB,$B20)=0,NA(),INDEX(DATA!AB:AB,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB20" s="18" t="e">
+      <c r="AB20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AC:AC,$B20)=0,NA(),INDEX(DATA!AC:AC,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC20" s="18" t="e">
+      <c r="AC20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AD:AD,$B20)=0,NA(),INDEX(DATA!AD:AD,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD20" s="18" t="e">
+      <c r="AD20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AE:AE,$B20)=0,NA(),INDEX(DATA!AE:AE,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE20" s="18" t="e">
+      <c r="AE20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AF:AF,$B20)=0,NA(),INDEX(DATA!AF:AF,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF20" s="18" t="e">
+      <c r="AF20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AG:AG,$B20)=0,NA(),INDEX(DATA!AG:AG,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG20" s="18" t="e">
+      <c r="AG20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AH:AH,$B20)=0,NA(),INDEX(DATA!AH:AH,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH20" s="18" t="e">
+      <c r="AH20" s="17" t="e">
         <f>IF($AI20,IF(INDEX(DATA!AI:AI,$B20)=0,NA(),INDEX(DATA!AI:AI,$B20)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -50610,127 +50610,127 @@
         <f>INDEX(Service!C:C,MATCH($A21,Service!$A:$A,0))</f>
         <v>St. Martin (French part)</v>
       </c>
-      <c r="D21" s="18" t="e">
+      <c r="D21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!E:E,$B21)=0,NA(),INDEX(DATA!E:E,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="18" t="e">
+      <c r="E21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!F:F,$B21)=0,NA(),INDEX(DATA!F:F,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F21" s="18" t="e">
+      <c r="F21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!G:G,$B21)=0,NA(),INDEX(DATA!G:G,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="18" t="e">
+      <c r="G21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!H:H,$B21)=0,NA(),INDEX(DATA!H:H,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H21" s="18" t="e">
+      <c r="H21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!I:I,$B21)=0,NA(),INDEX(DATA!I:I,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I21" s="18" t="e">
+      <c r="I21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!J:J,$B21)=0,NA(),INDEX(DATA!J:J,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="18" t="e">
+      <c r="J21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!K:K,$B21)=0,NA(),INDEX(DATA!K:K,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K21" s="18" t="e">
+      <c r="K21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!L:L,$B21)=0,NA(),INDEX(DATA!L:L,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L21" s="18" t="e">
+      <c r="L21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!M:M,$B21)=0,NA(),INDEX(DATA!M:M,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M21" s="18" t="e">
+      <c r="M21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!N:N,$B21)=0,NA(),INDEX(DATA!N:N,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N21" s="18" t="e">
+      <c r="N21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!O:O,$B21)=0,NA(),INDEX(DATA!O:O,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O21" s="18" t="e">
+      <c r="O21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!P:P,$B21)=0,NA(),INDEX(DATA!P:P,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="18" t="e">
+      <c r="P21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!Q:Q,$B21)=0,NA(),INDEX(DATA!Q:Q,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q21" s="18" t="e">
+      <c r="Q21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!R:R,$B21)=0,NA(),INDEX(DATA!R:R,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R21" s="18" t="e">
+      <c r="R21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!S:S,$B21)=0,NA(),INDEX(DATA!S:S,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S21" s="18" t="e">
+      <c r="S21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!T:T,$B21)=0,NA(),INDEX(DATA!T:T,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T21" s="18" t="e">
+      <c r="T21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!U:U,$B21)=0,NA(),INDEX(DATA!U:U,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U21" s="18" t="e">
+      <c r="U21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!V:V,$B21)=0,NA(),INDEX(DATA!V:V,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V21" s="18" t="e">
+      <c r="V21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!W:W,$B21)=0,NA(),INDEX(DATA!W:W,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W21" s="18" t="e">
+      <c r="W21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!X:X,$B21)=0,NA(),INDEX(DATA!X:X,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X21" s="18" t="e">
+      <c r="X21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!Y:Y,$B21)=0,NA(),INDEX(DATA!Y:Y,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y21" s="18" t="e">
+      <c r="Y21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!Z:Z,$B21)=0,NA(),INDEX(DATA!Z:Z,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z21" s="18" t="e">
+      <c r="Z21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AA:AA,$B21)=0,NA(),INDEX(DATA!AA:AA,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA21" s="18" t="e">
+      <c r="AA21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AB:AB,$B21)=0,NA(),INDEX(DATA!AB:AB,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB21" s="18" t="e">
+      <c r="AB21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AC:AC,$B21)=0,NA(),INDEX(DATA!AC:AC,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC21" s="18" t="e">
+      <c r="AC21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AD:AD,$B21)=0,NA(),INDEX(DATA!AD:AD,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD21" s="18" t="e">
+      <c r="AD21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AE:AE,$B21)=0,NA(),INDEX(DATA!AE:AE,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE21" s="18" t="e">
+      <c r="AE21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AF:AF,$B21)=0,NA(),INDEX(DATA!AF:AF,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF21" s="18" t="e">
+      <c r="AF21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AG:AG,$B21)=0,NA(),INDEX(DATA!AG:AG,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG21" s="18" t="e">
+      <c r="AG21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AH:AH,$B21)=0,NA(),INDEX(DATA!AH:AH,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH21" s="18" t="e">
+      <c r="AH21" s="17" t="e">
         <f>IF($AI21,IF(INDEX(DATA!AI:AI,$B21)=0,NA(),INDEX(DATA!AI:AI,$B21)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -50750,127 +50750,127 @@
         <f>INDEX(Service!C:C,MATCH($A22,Service!$A:$A,0))</f>
         <v>Italy</v>
       </c>
-      <c r="D22" s="18" t="e">
+      <c r="D22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!E:E,$B22)=0,NA(),INDEX(DATA!E:E,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="18" t="e">
+      <c r="E22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!F:F,$B22)=0,NA(),INDEX(DATA!F:F,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="18" t="e">
+      <c r="F22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!G:G,$B22)=0,NA(),INDEX(DATA!G:G,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="18" t="e">
+      <c r="G22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!H:H,$B22)=0,NA(),INDEX(DATA!H:H,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H22" s="18" t="e">
+      <c r="H22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!I:I,$B22)=0,NA(),INDEX(DATA!I:I,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I22" s="18" t="e">
+      <c r="I22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!J:J,$B22)=0,NA(),INDEX(DATA!J:J,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="18" t="e">
+      <c r="J22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!K:K,$B22)=0,NA(),INDEX(DATA!K:K,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K22" s="18" t="e">
+      <c r="K22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!L:L,$B22)=0,NA(),INDEX(DATA!L:L,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="18" t="e">
+      <c r="L22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!M:M,$B22)=0,NA(),INDEX(DATA!M:M,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="18" t="e">
+      <c r="M22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!N:N,$B22)=0,NA(),INDEX(DATA!N:N,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N22" s="18" t="e">
+      <c r="N22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!O:O,$B22)=0,NA(),INDEX(DATA!O:O,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O22" s="18" t="e">
+      <c r="O22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!P:P,$B22)=0,NA(),INDEX(DATA!P:P,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="18" t="e">
+      <c r="P22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!Q:Q,$B22)=0,NA(),INDEX(DATA!Q:Q,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q22" s="18" t="e">
+      <c r="Q22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!R:R,$B22)=0,NA(),INDEX(DATA!R:R,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R22" s="18" t="e">
+      <c r="R22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!S:S,$B22)=0,NA(),INDEX(DATA!S:S,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S22" s="18" t="e">
+      <c r="S22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!T:T,$B22)=0,NA(),INDEX(DATA!T:T,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T22" s="18" t="e">
+      <c r="T22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!U:U,$B22)=0,NA(),INDEX(DATA!U:U,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U22" s="18" t="e">
+      <c r="U22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!V:V,$B22)=0,NA(),INDEX(DATA!V:V,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V22" s="18" t="e">
+      <c r="V22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!W:W,$B22)=0,NA(),INDEX(DATA!W:W,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W22" s="18" t="e">
+      <c r="W22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!X:X,$B22)=0,NA(),INDEX(DATA!X:X,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X22" s="18" t="e">
+      <c r="X22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!Y:Y,$B22)=0,NA(),INDEX(DATA!Y:Y,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y22" s="18" t="e">
+      <c r="Y22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!Z:Z,$B22)=0,NA(),INDEX(DATA!Z:Z,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z22" s="18" t="e">
+      <c r="Z22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AA:AA,$B22)=0,NA(),INDEX(DATA!AA:AA,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA22" s="18" t="e">
+      <c r="AA22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AB:AB,$B22)=0,NA(),INDEX(DATA!AB:AB,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB22" s="18" t="e">
+      <c r="AB22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AC:AC,$B22)=0,NA(),INDEX(DATA!AC:AC,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC22" s="18" t="e">
+      <c r="AC22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AD:AD,$B22)=0,NA(),INDEX(DATA!AD:AD,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD22" s="18" t="e">
+      <c r="AD22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AE:AE,$B22)=0,NA(),INDEX(DATA!AE:AE,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE22" s="18" t="e">
+      <c r="AE22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AF:AF,$B22)=0,NA(),INDEX(DATA!AF:AF,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF22" s="18" t="e">
+      <c r="AF22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AG:AG,$B22)=0,NA(),INDEX(DATA!AG:AG,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG22" s="18" t="e">
+      <c r="AG22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AH:AH,$B22)=0,NA(),INDEX(DATA!AH:AH,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH22" s="18" t="e">
+      <c r="AH22" s="17" t="e">
         <f>IF($AI22,IF(INDEX(DATA!AI:AI,$B22)=0,NA(),INDEX(DATA!AI:AI,$B22)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -50890,127 +50890,127 @@
         <f>INDEX(Service!C:C,MATCH($A23,Service!$A:$A,0))</f>
         <v>Bulgaria</v>
       </c>
-      <c r="D23" s="18" t="e">
+      <c r="D23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!E:E,$B23)=0,NA(),INDEX(DATA!E:E,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="18" t="e">
+      <c r="E23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!F:F,$B23)=0,NA(),INDEX(DATA!F:F,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F23" s="18" t="e">
+      <c r="F23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!G:G,$B23)=0,NA(),INDEX(DATA!G:G,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="18" t="e">
+      <c r="G23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!H:H,$B23)=0,NA(),INDEX(DATA!H:H,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H23" s="18" t="e">
+      <c r="H23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!I:I,$B23)=0,NA(),INDEX(DATA!I:I,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I23" s="18" t="e">
+      <c r="I23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!J:J,$B23)=0,NA(),INDEX(DATA!J:J,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="18" t="e">
+      <c r="J23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!K:K,$B23)=0,NA(),INDEX(DATA!K:K,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K23" s="18" t="e">
+      <c r="K23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!L:L,$B23)=0,NA(),INDEX(DATA!L:L,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L23" s="18" t="e">
+      <c r="L23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!M:M,$B23)=0,NA(),INDEX(DATA!M:M,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="18" t="e">
+      <c r="M23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!N:N,$B23)=0,NA(),INDEX(DATA!N:N,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N23" s="18" t="e">
+      <c r="N23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!O:O,$B23)=0,NA(),INDEX(DATA!O:O,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O23" s="18" t="e">
+      <c r="O23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!P:P,$B23)=0,NA(),INDEX(DATA!P:P,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="18" t="e">
+      <c r="P23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!Q:Q,$B23)=0,NA(),INDEX(DATA!Q:Q,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q23" s="18" t="e">
+      <c r="Q23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!R:R,$B23)=0,NA(),INDEX(DATA!R:R,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R23" s="18" t="e">
+      <c r="R23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!S:S,$B23)=0,NA(),INDEX(DATA!S:S,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S23" s="18" t="e">
+      <c r="S23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!T:T,$B23)=0,NA(),INDEX(DATA!T:T,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T23" s="18" t="e">
+      <c r="T23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!U:U,$B23)=0,NA(),INDEX(DATA!U:U,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U23" s="18" t="e">
+      <c r="U23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!V:V,$B23)=0,NA(),INDEX(DATA!V:V,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V23" s="18" t="e">
+      <c r="V23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!W:W,$B23)=0,NA(),INDEX(DATA!W:W,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W23" s="18" t="e">
+      <c r="W23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!X:X,$B23)=0,NA(),INDEX(DATA!X:X,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X23" s="18" t="e">
+      <c r="X23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!Y:Y,$B23)=0,NA(),INDEX(DATA!Y:Y,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y23" s="18" t="e">
+      <c r="Y23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!Z:Z,$B23)=0,NA(),INDEX(DATA!Z:Z,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z23" s="18" t="e">
+      <c r="Z23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AA:AA,$B23)=0,NA(),INDEX(DATA!AA:AA,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA23" s="18" t="e">
+      <c r="AA23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AB:AB,$B23)=0,NA(),INDEX(DATA!AB:AB,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB23" s="18" t="e">
+      <c r="AB23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AC:AC,$B23)=0,NA(),INDEX(DATA!AC:AC,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC23" s="18" t="e">
+      <c r="AC23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AD:AD,$B23)=0,NA(),INDEX(DATA!AD:AD,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD23" s="18" t="e">
+      <c r="AD23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AE:AE,$B23)=0,NA(),INDEX(DATA!AE:AE,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE23" s="18" t="e">
+      <c r="AE23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AF:AF,$B23)=0,NA(),INDEX(DATA!AF:AF,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF23" s="18" t="e">
+      <c r="AF23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AG:AG,$B23)=0,NA(),INDEX(DATA!AG:AG,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG23" s="18" t="e">
+      <c r="AG23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AH:AH,$B23)=0,NA(),INDEX(DATA!AH:AH,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH23" s="18" t="e">
+      <c r="AH23" s="17" t="e">
         <f>IF($AI23,IF(INDEX(DATA!AI:AI,$B23)=0,NA(),INDEX(DATA!AI:AI,$B23)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -51030,127 +51030,127 @@
         <f>INDEX(Service!C:C,MATCH($A24,Service!$A:$A,0))</f>
         <v>France</v>
       </c>
-      <c r="D24" s="18" t="e">
+      <c r="D24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!E:E,$B24)=0,NA(),INDEX(DATA!E:E,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="18" t="e">
+      <c r="E24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!F:F,$B24)=0,NA(),INDEX(DATA!F:F,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F24" s="18" t="e">
+      <c r="F24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!G:G,$B24)=0,NA(),INDEX(DATA!G:G,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="18" t="e">
+      <c r="G24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!H:H,$B24)=0,NA(),INDEX(DATA!H:H,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H24" s="18" t="e">
+      <c r="H24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!I:I,$B24)=0,NA(),INDEX(DATA!I:I,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="18" t="e">
+      <c r="I24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!J:J,$B24)=0,NA(),INDEX(DATA!J:J,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="18" t="e">
+      <c r="J24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!K:K,$B24)=0,NA(),INDEX(DATA!K:K,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K24" s="18" t="e">
+      <c r="K24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!L:L,$B24)=0,NA(),INDEX(DATA!L:L,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L24" s="18" t="e">
+      <c r="L24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!M:M,$B24)=0,NA(),INDEX(DATA!M:M,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M24" s="18" t="e">
+      <c r="M24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!N:N,$B24)=0,NA(),INDEX(DATA!N:N,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N24" s="18" t="e">
+      <c r="N24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!O:O,$B24)=0,NA(),INDEX(DATA!O:O,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O24" s="18" t="e">
+      <c r="O24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!P:P,$B24)=0,NA(),INDEX(DATA!P:P,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="18" t="e">
+      <c r="P24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!Q:Q,$B24)=0,NA(),INDEX(DATA!Q:Q,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q24" s="18" t="e">
+      <c r="Q24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!R:R,$B24)=0,NA(),INDEX(DATA!R:R,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R24" s="18" t="e">
+      <c r="R24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!S:S,$B24)=0,NA(),INDEX(DATA!S:S,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S24" s="18" t="e">
+      <c r="S24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!T:T,$B24)=0,NA(),INDEX(DATA!T:T,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T24" s="18" t="e">
+      <c r="T24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!U:U,$B24)=0,NA(),INDEX(DATA!U:U,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U24" s="18" t="e">
+      <c r="U24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!V:V,$B24)=0,NA(),INDEX(DATA!V:V,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V24" s="18" t="e">
+      <c r="V24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!W:W,$B24)=0,NA(),INDEX(DATA!W:W,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W24" s="18" t="e">
+      <c r="W24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!X:X,$B24)=0,NA(),INDEX(DATA!X:X,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X24" s="18" t="e">
+      <c r="X24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!Y:Y,$B24)=0,NA(),INDEX(DATA!Y:Y,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y24" s="18" t="e">
+      <c r="Y24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!Z:Z,$B24)=0,NA(),INDEX(DATA!Z:Z,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z24" s="18" t="e">
+      <c r="Z24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AA:AA,$B24)=0,NA(),INDEX(DATA!AA:AA,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA24" s="18" t="e">
+      <c r="AA24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AB:AB,$B24)=0,NA(),INDEX(DATA!AB:AB,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB24" s="18" t="e">
+      <c r="AB24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AC:AC,$B24)=0,NA(),INDEX(DATA!AC:AC,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC24" s="18" t="e">
+      <c r="AC24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AD:AD,$B24)=0,NA(),INDEX(DATA!AD:AD,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD24" s="18" t="e">
+      <c r="AD24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AE:AE,$B24)=0,NA(),INDEX(DATA!AE:AE,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE24" s="18" t="e">
+      <c r="AE24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AF:AF,$B24)=0,NA(),INDEX(DATA!AF:AF,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF24" s="18" t="e">
+      <c r="AF24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AG:AG,$B24)=0,NA(),INDEX(DATA!AG:AG,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG24" s="18" t="e">
+      <c r="AG24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AH:AH,$B24)=0,NA(),INDEX(DATA!AH:AH,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH24" s="18" t="e">
+      <c r="AH24" s="17" t="e">
         <f>IF($AI24,IF(INDEX(DATA!AI:AI,$B24)=0,NA(),INDEX(DATA!AI:AI,$B24)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -51170,127 +51170,127 @@
         <f>INDEX(Service!C:C,MATCH($A25,Service!$A:$A,0))</f>
         <v>Belarus</v>
       </c>
-      <c r="D25" s="18" t="e">
+      <c r="D25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!E:E,$B25)=0,NA(),INDEX(DATA!E:E,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="18" t="e">
+      <c r="E25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!F:F,$B25)=0,NA(),INDEX(DATA!F:F,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F25" s="18" t="e">
+      <c r="F25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!G:G,$B25)=0,NA(),INDEX(DATA!G:G,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="18" t="e">
+      <c r="G25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!H:H,$B25)=0,NA(),INDEX(DATA!H:H,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H25" s="18" t="e">
+      <c r="H25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!I:I,$B25)=0,NA(),INDEX(DATA!I:I,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I25" s="18" t="e">
+      <c r="I25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!J:J,$B25)=0,NA(),INDEX(DATA!J:J,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="18" t="e">
+      <c r="J25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!K:K,$B25)=0,NA(),INDEX(DATA!K:K,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K25" s="18" t="e">
+      <c r="K25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!L:L,$B25)=0,NA(),INDEX(DATA!L:L,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L25" s="18" t="e">
+      <c r="L25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!M:M,$B25)=0,NA(),INDEX(DATA!M:M,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="18" t="e">
+      <c r="M25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!N:N,$B25)=0,NA(),INDEX(DATA!N:N,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N25" s="18" t="e">
+      <c r="N25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!O:O,$B25)=0,NA(),INDEX(DATA!O:O,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O25" s="18" t="e">
+      <c r="O25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!P:P,$B25)=0,NA(),INDEX(DATA!P:P,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="18" t="e">
+      <c r="P25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!Q:Q,$B25)=0,NA(),INDEX(DATA!Q:Q,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q25" s="18" t="e">
+      <c r="Q25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!R:R,$B25)=0,NA(),INDEX(DATA!R:R,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R25" s="18" t="e">
+      <c r="R25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!S:S,$B25)=0,NA(),INDEX(DATA!S:S,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S25" s="18" t="e">
+      <c r="S25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!T:T,$B25)=0,NA(),INDEX(DATA!T:T,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T25" s="18" t="e">
+      <c r="T25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!U:U,$B25)=0,NA(),INDEX(DATA!U:U,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U25" s="18" t="e">
+      <c r="U25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!V:V,$B25)=0,NA(),INDEX(DATA!V:V,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V25" s="18" t="e">
+      <c r="V25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!W:W,$B25)=0,NA(),INDEX(DATA!W:W,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W25" s="18" t="e">
+      <c r="W25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!X:X,$B25)=0,NA(),INDEX(DATA!X:X,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X25" s="18" t="e">
+      <c r="X25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!Y:Y,$B25)=0,NA(),INDEX(DATA!Y:Y,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y25" s="18" t="e">
+      <c r="Y25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!Z:Z,$B25)=0,NA(),INDEX(DATA!Z:Z,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z25" s="18" t="e">
+      <c r="Z25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AA:AA,$B25)=0,NA(),INDEX(DATA!AA:AA,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA25" s="18" t="e">
+      <c r="AA25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AB:AB,$B25)=0,NA(),INDEX(DATA!AB:AB,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB25" s="18" t="e">
+      <c r="AB25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AC:AC,$B25)=0,NA(),INDEX(DATA!AC:AC,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC25" s="18" t="e">
+      <c r="AC25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AD:AD,$B25)=0,NA(),INDEX(DATA!AD:AD,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD25" s="18" t="e">
+      <c r="AD25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AE:AE,$B25)=0,NA(),INDEX(DATA!AE:AE,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE25" s="18" t="e">
+      <c r="AE25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AF:AF,$B25)=0,NA(),INDEX(DATA!AF:AF,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF25" s="18" t="e">
+      <c r="AF25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AG:AG,$B25)=0,NA(),INDEX(DATA!AG:AG,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG25" s="18" t="e">
+      <c r="AG25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AH:AH,$B25)=0,NA(),INDEX(DATA!AH:AH,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH25" s="18" t="e">
+      <c r="AH25" s="17" t="e">
         <f>IF($AI25,IF(INDEX(DATA!AI:AI,$B25)=0,NA(),INDEX(DATA!AI:AI,$B25)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -51310,127 +51310,127 @@
         <f>INDEX(Service!C:C,MATCH($A26,Service!$A:$A,0))</f>
         <v>Greece</v>
       </c>
-      <c r="D26" s="18" t="e">
+      <c r="D26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!E:E,$B26)=0,NA(),INDEX(DATA!E:E,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="E26" s="18" t="e">
+      <c r="E26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!F:F,$B26)=0,NA(),INDEX(DATA!F:F,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F26" s="18" t="e">
+      <c r="F26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!G:G,$B26)=0,NA(),INDEX(DATA!G:G,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="G26" s="18" t="e">
+      <c r="G26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!H:H,$B26)=0,NA(),INDEX(DATA!H:H,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="H26" s="18" t="e">
+      <c r="H26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!I:I,$B26)=0,NA(),INDEX(DATA!I:I,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I26" s="18" t="e">
+      <c r="I26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!J:J,$B26)=0,NA(),INDEX(DATA!J:J,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="18" t="e">
+      <c r="J26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!K:K,$B26)=0,NA(),INDEX(DATA!K:K,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="K26" s="18" t="e">
+      <c r="K26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!L:L,$B26)=0,NA(),INDEX(DATA!L:L,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="L26" s="18" t="e">
+      <c r="L26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!M:M,$B26)=0,NA(),INDEX(DATA!M:M,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="M26" s="18" t="e">
+      <c r="M26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!N:N,$B26)=0,NA(),INDEX(DATA!N:N,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="N26" s="18" t="e">
+      <c r="N26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!O:O,$B26)=0,NA(),INDEX(DATA!O:O,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="O26" s="18" t="e">
+      <c r="O26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!P:P,$B26)=0,NA(),INDEX(DATA!P:P,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="18" t="e">
+      <c r="P26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!Q:Q,$B26)=0,NA(),INDEX(DATA!Q:Q,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Q26" s="18" t="e">
+      <c r="Q26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!R:R,$B26)=0,NA(),INDEX(DATA!R:R,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="R26" s="18" t="e">
+      <c r="R26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!S:S,$B26)=0,NA(),INDEX(DATA!S:S,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="S26" s="18" t="e">
+      <c r="S26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!T:T,$B26)=0,NA(),INDEX(DATA!T:T,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="T26" s="18" t="e">
+      <c r="T26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!U:U,$B26)=0,NA(),INDEX(DATA!U:U,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="U26" s="18" t="e">
+      <c r="U26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!V:V,$B26)=0,NA(),INDEX(DATA!V:V,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="V26" s="18" t="e">
+      <c r="V26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!W:W,$B26)=0,NA(),INDEX(DATA!W:W,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="W26" s="18" t="e">
+      <c r="W26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!X:X,$B26)=0,NA(),INDEX(DATA!X:X,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="X26" s="18" t="e">
+      <c r="X26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!Y:Y,$B26)=0,NA(),INDEX(DATA!Y:Y,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Y26" s="18" t="e">
+      <c r="Y26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!Z:Z,$B26)=0,NA(),INDEX(DATA!Z:Z,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="Z26" s="18" t="e">
+      <c r="Z26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AA:AA,$B26)=0,NA(),INDEX(DATA!AA:AA,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AA26" s="18" t="e">
+      <c r="AA26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AB:AB,$B26)=0,NA(),INDEX(DATA!AB:AB,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AB26" s="18" t="e">
+      <c r="AB26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AC:AC,$B26)=0,NA(),INDEX(DATA!AC:AC,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AC26" s="18" t="e">
+      <c r="AC26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AD:AD,$B26)=0,NA(),INDEX(DATA!AD:AD,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AD26" s="18" t="e">
+      <c r="AD26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AE:AE,$B26)=0,NA(),INDEX(DATA!AE:AE,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AE26" s="18" t="e">
+      <c r="AE26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AF:AF,$B26)=0,NA(),INDEX(DATA!AF:AF,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AF26" s="18" t="e">
+      <c r="AF26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AG:AG,$B26)=0,NA(),INDEX(DATA!AG:AG,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AG26" s="18" t="e">
+      <c r="AG26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AH:AH,$B26)=0,NA(),INDEX(DATA!AH:AH,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AH26" s="18" t="e">
+      <c r="AH26" s="17" t="e">
         <f>IF($AI26,IF(INDEX(DATA!AI:AI,$B26)=0,NA(),INDEX(DATA!AI:AI,$B26)),NA())</f>
         <v>#N/A</v>
       </c>
@@ -51737,7 +51737,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51818,10 +51818,10 @@
       <c r="Q5" s="26"/>
     </row>
     <row r="7" spans="1:17" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="31" t="s">
         <v>421</v>
       </c>
@@ -51832,21 +51832,21 @@
       <c r="L12" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <f>Data_Dashboard!AH6</f>
         <v>2020</v>
       </c>
-      <c r="O12" s="24"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="L13" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="24" t="str">
         <f>C7</f>
         <v>Puerto Rico</v>
       </c>
-      <c r="O13" s="17"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="L14" s="14" t="s">
@@ -51869,22 +51869,22 @@
         <f>IF(N17&gt;0,"up","down")</f>
         <v>up</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="21">
         <f>N14-Data_Dashboard!AG3/100</f>
         <v>5.5242390078924508E-4</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:17" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24">
+      <c r="M18" s="22"/>
+      <c r="N18" s="23">
         <f>N12-1</f>
         <v>2019</v>
       </c>
-      <c r="O18" s="24"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:17" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:17" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -51897,24 +51897,24 @@
         <f>IF(N21&gt;0,"up","down")</f>
         <v>up</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="21">
         <f>N14-Data_Dashboard!D3/100</f>
         <v>0.1984216459977452</v>
       </c>
-      <c r="O21" s="22"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:17" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24">
+      <c r="M22" s="22"/>
+      <c r="N22" s="23">
         <v>1990</v>
       </c>
-      <c r="O22" s="24"/>
+      <c r="O22" s="23"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N23" s="21"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="29" spans="1:17" s="15" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
